--- a/products.xlsx
+++ b/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcosouza/Documents/網頁設計/jewellery_choices_site/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcosouza/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB5BE9C2-97CF-7B48-B9C5-B3A9442CCB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF09C5B-14CF-A749-8F39-506F5CC8181E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products_excel" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -86,12 +86,15 @@
   </si>
   <si>
     <t xml:space="preserve">這是我們的訂製服務展示，我們可以根據您的需求和喜好，為您量身打造獨一無二的珠寶作品。從設計理念到材料選擇，從工藝技法到最終成品，每一個環節都由資深設計師和工匠精心打造。無論您想要什麼風格、什麼材質，我們都能為您實現夢想中的珠寶。歡迎聯繫我們討論您的專屬設計需求。 </t>
+  </si>
+  <si>
+    <t>示範</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -928,11 +931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1060,12 +1063,32 @@
         <v>21</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1">
+        <v>123123</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D346">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D346" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"手鐲,項鍊,耳環,戒指,訂製款式參考"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E100" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"天然鑽石,天然翡翠,天然珍珠,純銀,18K金"</formula1>
     </dataValidation>
   </dataValidations>

--- a/products.xlsx
+++ b/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcosouza/Documents/網頁設計/jewellery_choices_site/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcosouza/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB5BE9C2-97CF-7B48-B9C5-B3A9442CCB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22428A98-E4DA-D446-AAB0-693F99CFF2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products_excel" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -86,12 +86,15 @@
   </si>
   <si>
     <t xml:space="preserve">這是我們的訂製服務展示，我們可以根據您的需求和喜好，為您量身打造獨一無二的珠寶作品。從設計理念到材料選擇，從工藝技法到最終成品，每一個環節都由資深設計師和工匠精心打造。無論您想要什麼風格、什麼材質，我們都能為您實現夢想中的珠寶。歡迎聯繫我們討論您的專屬設計需求。 </t>
+  </si>
+  <si>
+    <t>示範</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -928,11 +931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1060,12 +1063,32 @@
         <v>21</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
+        <v>123123</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D346">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D346" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"手鐲,項鍊,耳環,戒指,訂製款式參考"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E100" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"天然鑽石,天然翡翠,天然珍珠,純銀,18K金"</formula1>
     </dataValidation>
   </dataValidations>

--- a/products.xlsx
+++ b/products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcosouza/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcosouza/Documents/github/jewellery-choices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22428A98-E4DA-D446-AAB0-693F99CFF2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0698BEC9-3E88-D24C-B60D-B887EEDE88E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,7 +935,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E2" sqref="E2:E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,10 +1086,10 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D346" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"手鐲,項鍊,耳環,戒指,訂製款式參考"</formula1>
+      <formula1>"手鐲,手鍊,項鍊,耳環,戒指,訂製款式參考"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E100" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"天然鑽石,天然翡翠,天然珍珠,純銀,18K金"</formula1>
+      <formula1>"天然鑽石,培育鑽石,天然翡翠,天然珍珠,純銀,18K金"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
